--- a/Logs/EXPERIMENTS.xlsx
+++ b/Logs/EXPERIMENTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\UNIVERSITY\ΔΙΠΛΩΜΑΤΙΚΗ\Implementations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P\Desktop\repo_Classification-HMMs\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02912F5E-0130-4D35-BA39-C83AFF04BA50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7F3114-2135-49FE-B1BC-D7CFBEF92290}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,6 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -1155,9 +1147,6 @@
     <t>['8', '0', '37', '57', '12', '32', '12', '54', '54', '36']</t>
   </si>
   <si>
-    <t>['just', 'hour', 'home', 'movie', 'leave', 'wanting', 'mention', 'leaving', 'smile', 'face']</t>
-  </si>
-  <si>
     <t>[0.0032763532763532767, 1.8429487179487186e-06, 1.0309705405191523e-09, 1.1312434524317573e-11, 5.5687089782154025e-15, 2.5781060084330573e-19, 3.0216901177133826e-23, 7.036537200264033e-27, 9.363322954443159e-31, 5.396727927632946e-34]</t>
   </si>
   <si>
@@ -1555,6 +1544,9 @@
   </si>
   <si>
     <t>ensemble</t>
+  </si>
+  <si>
+    <t>['just', 'hour', 'home', 'movie', 'leave', 'wanting', 'mention', '', 'smile', 'face']</t>
   </si>
 </sst>
 </file>
@@ -1765,6 +1757,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1776,9 +1771,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -2165,15 +2157,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="2" customWidth="1"/>
     <col min="3" max="12" width="16.5" style="2" customWidth="1"/>
     <col min="13" max="14" width="16.5" style="3" customWidth="1"/>
     <col min="15" max="16" width="16.5" style="4" customWidth="1"/>
     <col min="17" max="18" width="16.5" style="2" customWidth="1"/>
-    <col min="19" max="1023" width="10.625" style="2" customWidth="1"/>
+    <col min="19" max="1023" width="10.59765625" style="2" customWidth="1"/>
     <col min="1024" max="1025" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2182,17 +2174,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
@@ -2200,12 +2192,12 @@
       <c r="L1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="7" t="s">
@@ -2257,7 +2249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -2743,7 +2735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15">
+    <row r="18" spans="1:16">
       <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
@@ -3059,7 +3051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15">
+    <row r="27" spans="1:16">
       <c r="A27" s="11" t="s">
         <v>22</v>
       </c>
@@ -3157,7 +3149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15">
+    <row r="33" spans="1:16">
       <c r="A33" s="11" t="s">
         <v>53</v>
       </c>
@@ -3200,7 +3192,7 @@
         <v>51.723999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15">
+    <row r="35" spans="1:16">
       <c r="A35" s="11" t="s">
         <v>55</v>
       </c>
@@ -3243,7 +3235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15">
+    <row r="37" spans="1:16">
       <c r="A37" s="11" t="s">
         <v>56</v>
       </c>
@@ -3286,7 +3278,7 @@
         <v>47.457999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15">
+    <row r="39" spans="1:16">
       <c r="A39" s="11" t="s">
         <v>53</v>
       </c>
@@ -3329,7 +3321,7 @@
         <v>78.332999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15">
+    <row r="41" spans="1:16">
       <c r="A41" s="11" t="s">
         <v>55</v>
       </c>
@@ -3372,7 +3364,7 @@
         <v>81.034000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15">
+    <row r="43" spans="1:16">
       <c r="A43" s="11" t="s">
         <v>56</v>
       </c>
@@ -3415,7 +3407,7 @@
         <v>76.667000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15">
+    <row r="45" spans="1:16">
       <c r="A45" s="11" t="s">
         <v>53</v>
       </c>
@@ -3458,7 +3450,7 @@
         <v>78.332999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15">
+    <row r="47" spans="1:16">
       <c r="A47" s="11" t="s">
         <v>55</v>
       </c>
@@ -3501,7 +3493,7 @@
         <v>82.759</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15">
+    <row r="49" spans="1:16">
       <c r="A49" s="11" t="s">
         <v>56</v>
       </c>
@@ -3607,17 +3599,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
     <col min="5" max="12" width="16.5" style="2" customWidth="1"/>
     <col min="13" max="14" width="16.5" style="3" customWidth="1"/>
     <col min="15" max="16" width="16.5" style="4" customWidth="1"/>
     <col min="17" max="18" width="16.5" style="2" customWidth="1"/>
-    <col min="19" max="1023" width="10.625" style="2" customWidth="1"/>
+    <col min="19" max="1023" width="10.59765625" style="2" customWidth="1"/>
     <col min="1024" max="1025" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3626,17 +3618,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
@@ -3644,12 +3636,12 @@
       <c r="L1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="7" t="s">
@@ -3701,7 +3693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -4943,7 +4935,7 @@
         <v>84.210999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15">
+    <row r="31" spans="1:16">
       <c r="A31" s="11" t="s">
         <v>44</v>
       </c>
@@ -5432,7 +5424,7 @@
         <v>82.759</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5">
+    <row r="42" spans="1:16" ht="16.2">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
@@ -5484,7 +5476,7 @@
         <v>81.034000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.5">
+    <row r="43" spans="1:16" ht="16.2">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -5536,7 +5528,7 @@
         <v>82.456000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5">
+    <row r="44" spans="1:16" ht="16.2">
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
@@ -5588,7 +5580,7 @@
         <v>82.456000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.5">
+    <row r="45" spans="1:16" ht="16.2">
       <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
@@ -5640,7 +5632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.5">
+    <row r="46" spans="1:16" ht="16.2">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -5692,7 +5684,7 @@
         <v>78.947000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.5">
+    <row r="47" spans="1:16" ht="16.2">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
@@ -5744,7 +5736,7 @@
         <v>82.456000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16.5">
+    <row r="48" spans="1:16" ht="16.2">
       <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
@@ -5793,7 +5785,7 @@
         <v>82.759</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16.5">
+    <row r="49" spans="1:16" ht="16.2">
       <c r="B49" s="2">
         <v>3</v>
       </c>
@@ -5842,7 +5834,7 @@
         <v>83.051000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.5">
+    <row r="50" spans="1:16" ht="16.2">
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
@@ -5891,7 +5883,7 @@
         <v>77.585999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16.5">
+    <row r="51" spans="1:16" ht="16.2">
       <c r="B51" s="2">
         <v>3</v>
       </c>
@@ -5940,7 +5932,7 @@
         <v>84.745999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="16.5">
+    <row r="52" spans="1:16" ht="16.2">
       <c r="B52" s="2">
         <v>3</v>
       </c>
@@ -6017,17 +6009,17 @@
       <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="56.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="56.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.69921875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.69921875" style="4" customWidth="1"/>
     <col min="6" max="12" width="16.5" style="2" customWidth="1"/>
     <col min="13" max="14" width="16.5" style="3" customWidth="1"/>
     <col min="15" max="16" width="16.5" style="4" customWidth="1"/>
     <col min="17" max="18" width="16.5" style="2" customWidth="1"/>
-    <col min="19" max="1023" width="10.625" style="2" customWidth="1"/>
+    <col min="19" max="1023" width="10.59765625" style="2" customWidth="1"/>
     <col min="1024" max="1025" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6036,17 +6028,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
@@ -6054,12 +6046,12 @@
       <c r="L1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="7"/>
@@ -6079,7 +6071,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16">
       <c r="A3" s="11"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -6120,7 +6112,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15">
+    <row r="6" spans="1:16">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
@@ -6153,7 +6145,7 @@
         <v>85.926000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15">
+    <row r="7" spans="1:16">
       <c r="A7" s="11" t="s">
         <v>56</v>
       </c>
@@ -6183,7 +6175,7 @@
         <v>71.096000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15">
+    <row r="8" spans="1:16">
       <c r="A8" s="14" t="s">
         <v>105</v>
       </c>
@@ -6219,7 +6211,7 @@
         <v>90.141000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:16">
       <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
@@ -6250,7 +6242,7 @@
         <v>89.656999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16">
       <c r="A10" s="11" t="s">
         <v>53</v>
       </c>
@@ -6282,7 +6274,7 @@
         <v>80.64</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15">
+    <row r="11" spans="1:16">
       <c r="A11" s="11" t="s">
         <v>56</v>
       </c>
@@ -6314,7 +6306,7 @@
         <v>80.545000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15">
+    <row r="12" spans="1:16">
       <c r="A12" s="14" t="s">
         <v>105</v>
       </c>
@@ -6350,7 +6342,7 @@
         <v>82.004999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15">
+    <row r="13" spans="1:16">
       <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
@@ -6382,7 +6374,7 @@
         <v>82.004999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15">
+    <row r="14" spans="1:16">
       <c r="A14" s="11" t="s">
         <v>53</v>
       </c>
@@ -6414,7 +6406,7 @@
         <v>87.346999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15">
+    <row r="15" spans="1:16">
       <c r="A15" s="11" t="s">
         <v>56</v>
       </c>
@@ -6446,7 +6438,7 @@
         <v>74.302999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15">
+    <row r="16" spans="1:16">
       <c r="A16" s="14" t="s">
         <v>105</v>
       </c>
@@ -6482,7 +6474,7 @@
         <v>87.921000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15">
+    <row r="17" spans="1:13">
       <c r="A17" s="11" t="s">
         <v>55</v>
       </c>
@@ -6545,7 +6537,7 @@
         <v>72.317999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15">
+    <row r="19" spans="1:13">
       <c r="A19" s="11" t="s">
         <v>107</v>
       </c>
@@ -6576,7 +6568,7 @@
         <v>82.882999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15">
+    <row r="20" spans="1:13">
       <c r="A20" s="11" t="s">
         <v>108</v>
       </c>
@@ -6607,7 +6599,7 @@
         <v>72.317999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15">
+    <row r="21" spans="1:13">
       <c r="A21" s="11" t="s">
         <v>109</v>
       </c>
@@ -6638,7 +6630,7 @@
         <v>72.317999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15">
+    <row r="22" spans="1:13">
       <c r="A22" s="11" t="s">
         <v>110</v>
       </c>
@@ -6669,7 +6661,7 @@
         <v>72.317999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15">
+    <row r="23" spans="1:13">
       <c r="A23" s="11" t="s">
         <v>111</v>
       </c>
@@ -6700,7 +6692,7 @@
         <v>72.317999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15">
+    <row r="24" spans="1:13">
       <c r="A24" s="11" t="s">
         <v>112</v>
       </c>
@@ -6731,7 +6723,7 @@
         <v>81.048000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15">
+    <row r="25" spans="1:13">
       <c r="A25" s="11" t="s">
         <v>113</v>
       </c>
@@ -6765,7 +6757,7 @@
         <v>81.048000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15">
+    <row r="26" spans="1:13">
       <c r="A26" s="11" t="s">
         <v>114</v>
       </c>
@@ -6799,7 +6791,7 @@
         <v>83.756</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15">
+    <row r="27" spans="1:13">
       <c r="A27" s="11" t="s">
         <v>115</v>
       </c>
@@ -6830,7 +6822,7 @@
         <v>82.097999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15">
+    <row r="28" spans="1:13">
       <c r="A28" s="11" t="s">
         <v>116</v>
       </c>
@@ -6861,7 +6853,7 @@
         <v>79.864000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15">
+    <row r="29" spans="1:13">
       <c r="A29" s="11"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -6869,7 +6861,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="15">
+    <row r="30" spans="1:13">
       <c r="A30" s="11" t="s">
         <v>117</v>
       </c>
@@ -6897,7 +6889,7 @@
         <v>89.656999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15">
+    <row r="31" spans="1:13">
       <c r="A31" s="11" t="s">
         <v>117</v>
       </c>
@@ -6925,7 +6917,7 @@
         <v>82.004999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15">
+    <row r="32" spans="1:13">
       <c r="A32" s="11" t="s">
         <v>117</v>
       </c>
@@ -6953,7 +6945,7 @@
         <v>89.406000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15">
+    <row r="33" spans="1:13">
       <c r="A33" s="11" t="s">
         <v>118</v>
       </c>
@@ -6981,7 +6973,7 @@
         <v>89.656999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15">
+    <row r="34" spans="1:13">
       <c r="A34" s="11" t="s">
         <v>118</v>
       </c>
@@ -7009,7 +7001,7 @@
         <v>82.004999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15">
+    <row r="35" spans="1:13">
       <c r="A35" s="11" t="s">
         <v>118</v>
       </c>
@@ -7037,7 +7029,7 @@
         <v>89.406000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15">
+    <row r="36" spans="1:13">
       <c r="A36" s="11"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -7080,7 +7072,7 @@
       </c>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="15">
+    <row r="40" spans="1:13">
       <c r="A40" s="11" t="s">
         <v>53</v>
       </c>
@@ -7101,7 +7093,7 @@
       <c r="I40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="15">
+    <row r="41" spans="1:13">
       <c r="A41" s="11" t="s">
         <v>56</v>
       </c>
@@ -7122,7 +7114,7 @@
       <c r="I41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="15">
+    <row r="42" spans="1:13">
       <c r="A42" s="14" t="s">
         <v>105</v>
       </c>
@@ -7142,7 +7134,7 @@
       <c r="I42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="15">
+    <row r="43" spans="1:13">
       <c r="A43" s="11" t="s">
         <v>55</v>
       </c>
@@ -7163,7 +7155,7 @@
       <c r="I43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="15">
+    <row r="44" spans="1:13">
       <c r="A44" s="11" t="s">
         <v>53</v>
       </c>
@@ -7185,7 +7177,7 @@
       <c r="I44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="15">
+    <row r="45" spans="1:13">
       <c r="A45" s="11" t="s">
         <v>56</v>
       </c>
@@ -7206,7 +7198,7 @@
       <c r="I45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="15">
+    <row r="46" spans="1:13">
       <c r="A46" s="14" t="s">
         <v>105</v>
       </c>
@@ -7226,7 +7218,7 @@
       <c r="I46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="15">
+    <row r="47" spans="1:13">
       <c r="A47" s="11" t="s">
         <v>55</v>
       </c>
@@ -7248,7 +7240,7 @@
       <c r="I47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="15">
+    <row r="48" spans="1:13">
       <c r="A48" s="11" t="s">
         <v>53</v>
       </c>
@@ -7270,7 +7262,7 @@
       <c r="I48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="15">
+    <row r="49" spans="1:13">
       <c r="A49" s="11" t="s">
         <v>56</v>
       </c>
@@ -7292,7 +7284,7 @@
       <c r="I49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="15">
+    <row r="50" spans="1:13">
       <c r="A50" s="14" t="s">
         <v>105</v>
       </c>
@@ -7312,7 +7304,7 @@
       <c r="I50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="15">
+    <row r="51" spans="1:13">
       <c r="A51" s="11" t="s">
         <v>55</v>
       </c>
@@ -7334,7 +7326,7 @@
       <c r="I51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="15">
+    <row r="52" spans="1:13">
       <c r="A52" s="11" t="s">
         <v>106</v>
       </c>
@@ -7354,7 +7346,7 @@
       <c r="I52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="15">
+    <row r="53" spans="1:13">
       <c r="A53" s="11" t="s">
         <v>107</v>
       </c>
@@ -7374,7 +7366,7 @@
       <c r="I53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="15">
+    <row r="54" spans="1:13">
       <c r="A54" s="11" t="s">
         <v>112</v>
       </c>
@@ -7392,7 +7384,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="15">
+    <row r="55" spans="1:13">
       <c r="A55" s="11" t="s">
         <v>113</v>
       </c>
@@ -7410,7 +7402,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="15">
+    <row r="56" spans="1:13">
       <c r="A56" s="11" t="s">
         <v>114</v>
       </c>
@@ -7428,7 +7420,7 @@
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="15">
+    <row r="57" spans="1:13">
       <c r="A57" s="11" t="s">
         <v>115</v>
       </c>
@@ -7446,7 +7438,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="15">
+    <row r="58" spans="1:13">
       <c r="A58" s="11" t="s">
         <v>116</v>
       </c>
@@ -7488,7 +7480,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="15">
+    <row r="63" spans="1:13">
       <c r="A63" s="11" t="s">
         <v>122</v>
       </c>
@@ -7514,7 +7506,7 @@
         <v>72.317999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15">
+    <row r="64" spans="1:13">
       <c r="A64" s="11" t="s">
         <v>123</v>
       </c>
@@ -7540,7 +7532,7 @@
         <v>81.048000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15">
+    <row r="65" spans="1:13">
       <c r="A65" s="11" t="s">
         <v>124</v>
       </c>
@@ -7566,7 +7558,7 @@
         <v>81.048000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15">
+    <row r="66" spans="1:13">
       <c r="A66" s="11" t="s">
         <v>125</v>
       </c>
@@ -7592,7 +7584,7 @@
         <v>72.317999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15">
+    <row r="67" spans="1:13">
       <c r="A67" s="11" t="s">
         <v>126</v>
       </c>
@@ -7618,7 +7610,7 @@
         <v>81.048000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15">
+    <row r="68" spans="1:13">
       <c r="A68" s="11" t="s">
         <v>127</v>
       </c>
@@ -7644,7 +7636,7 @@
         <v>72.317999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15">
+    <row r="69" spans="1:13">
       <c r="A69" s="11" t="s">
         <v>128</v>
       </c>
@@ -8891,7 +8883,7 @@
       <c r="I125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="15">
+    <row r="126" spans="1:13">
       <c r="A126" s="11" t="s">
         <v>179</v>
       </c>
@@ -9183,10 +9175,10 @@
     </row>
     <row r="142" spans="1:13">
       <c r="B142" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C142" s="41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H142" s="41">
         <v>46114</v>
@@ -9194,7 +9186,7 @@
     </row>
     <row r="143" spans="1:13">
       <c r="B143" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C143" s="41">
         <v>76343</v>
@@ -9205,7 +9197,7 @@
     </row>
     <row r="144" spans="1:13">
       <c r="B144" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C144" s="41">
         <v>70048</v>
@@ -9216,7 +9208,7 @@
     </row>
     <row r="146" spans="2:8">
       <c r="B146" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C146" s="41">
         <v>43624</v>
@@ -9227,7 +9219,7 @@
     </row>
     <row r="147" spans="2:8">
       <c r="B147" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C147" s="41">
         <v>73323</v>
@@ -9238,7 +9230,7 @@
     </row>
     <row r="148" spans="2:8">
       <c r="B148" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C148" s="41">
         <v>49095</v>
@@ -9249,7 +9241,7 @@
     </row>
     <row r="150" spans="2:8">
       <c r="B150" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C150" s="41">
         <v>51519</v>
@@ -9260,7 +9252,7 @@
     </row>
     <row r="151" spans="2:8">
       <c r="B151" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C151" s="41">
         <v>77765</v>
@@ -9271,7 +9263,7 @@
     </row>
     <row r="152" spans="2:8">
       <c r="B152" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C152" s="41">
         <v>76965</v>
@@ -9301,37 +9293,37 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="81.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="2" customWidth="1"/>
-    <col min="4" max="5" width="24.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="81.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.69921875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.69921875" style="4" customWidth="1"/>
     <col min="6" max="12" width="16.5" style="2" customWidth="1"/>
     <col min="13" max="14" width="16.5" style="3" customWidth="1"/>
     <col min="15" max="16" width="16.5" style="4" customWidth="1"/>
     <col min="17" max="18" width="16.5" style="2" customWidth="1"/>
-    <col min="19" max="1023" width="10.625" style="2" customWidth="1"/>
+    <col min="19" max="1023" width="10.59765625" style="2" customWidth="1"/>
     <col min="1024" max="1025" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="7"/>
@@ -9351,7 +9343,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16">
       <c r="A3" s="11"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -9933,7 +9925,7 @@
       <c r="I41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="15">
+    <row r="42" spans="1:12">
       <c r="A42" s="11"/>
       <c r="B42" s="1"/>
       <c r="C42" s="13">
@@ -9951,7 +9943,7 @@
       <c r="I42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="15">
+    <row r="43" spans="1:12">
       <c r="A43" s="14"/>
       <c r="B43" s="1"/>
       <c r="C43" s="13">
@@ -9967,7 +9959,7 @@
       <c r="I43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="15">
+    <row r="44" spans="1:12">
       <c r="A44" s="11"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
@@ -9979,21 +9971,21 @@
       <c r="I44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="15">
+    <row r="45" spans="1:12">
       <c r="A45" s="11"/>
       <c r="D45" s="13"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="15">
+    <row r="46" spans="1:12">
       <c r="A46" s="11"/>
       <c r="D46" s="13"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" ht="15">
+    <row r="47" spans="1:12">
       <c r="A47" s="11"/>
       <c r="C47" s="13">
         <v>81.585999999999999</v>
@@ -10006,12 +9998,12 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" ht="15">
+    <row r="48" spans="1:12">
       <c r="A48" s="11"/>
       <c r="D48" s="19"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" ht="15">
+    <row r="49" spans="1:12">
       <c r="A49" s="11"/>
       <c r="C49" s="13">
         <v>80.155000000000001</v>
@@ -10024,7 +10016,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="15">
+    <row r="50" spans="1:12">
       <c r="A50" s="11"/>
       <c r="C50" s="2" t="s">
         <v>216</v>
@@ -10037,7 +10029,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" ht="15">
+    <row r="51" spans="1:12">
       <c r="A51" s="11"/>
       <c r="C51" s="2">
         <v>78.203999999999994</v>
@@ -10079,21 +10071,21 @@
       <c r="I55" s="1"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="15">
+    <row r="56" spans="1:12">
       <c r="A56" s="11"/>
       <c r="D56" s="13"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" ht="15">
+    <row r="57" spans="1:12">
       <c r="A57" s="11"/>
       <c r="D57" s="13"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" ht="15">
+    <row r="58" spans="1:12">
       <c r="A58" s="11"/>
       <c r="C58" s="13">
         <v>80.200999999999993</v>
@@ -10108,26 +10100,26 @@
       <c r="I58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" ht="15">
+    <row r="59" spans="1:12">
       <c r="A59" s="11"/>
       <c r="D59" s="13"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" ht="15">
+    <row r="60" spans="1:12">
       <c r="A60" s="11"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:12" ht="15">
+    <row r="61" spans="1:12">
       <c r="A61" s="11"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" ht="15">
+    <row r="62" spans="1:12">
       <c r="A62" s="11"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -10191,21 +10183,21 @@
       <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="56.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="56.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.69921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.69921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.19921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.59765625" style="2" customWidth="1"/>
     <col min="9" max="13" width="16.5" style="2" customWidth="1"/>
     <col min="14" max="15" width="16.5" style="3" customWidth="1"/>
     <col min="16" max="17" width="16.5" style="4" customWidth="1"/>
     <col min="18" max="19" width="16.5" style="2" customWidth="1"/>
-    <col min="20" max="1025" width="10.625" style="2" customWidth="1"/>
+    <col min="20" max="1025" width="10.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -10214,17 +10206,17 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
@@ -10232,12 +10224,12 @@
       <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="7"/>
@@ -10258,7 +10250,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:17">
       <c r="A3" s="11"/>
       <c r="D3" s="19" t="s">
         <v>186</v>
@@ -10283,7 +10275,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="15">
+    <row r="5" spans="1:17">
       <c r="A5" s="11"/>
       <c r="F5" s="2"/>
       <c r="H5" s="19" t="s">
@@ -10334,7 +10326,7 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="15">
+    <row r="8" spans="1:17">
       <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
@@ -10361,7 +10353,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="15">
+    <row r="9" spans="1:17">
       <c r="A9" s="11" t="s">
         <v>56</v>
       </c>
@@ -10384,7 +10376,7 @@
       <c r="J9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17">
       <c r="A10" s="14" t="s">
         <v>105</v>
       </c>
@@ -10408,7 +10400,7 @@
       <c r="K10" s="4"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17">
       <c r="A11" s="11" t="s">
         <v>55</v>
       </c>
@@ -10432,7 +10424,7 @@
       <c r="K11" s="4"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="15">
+    <row r="12" spans="1:17">
       <c r="A12" s="11" t="s">
         <v>236</v>
       </c>
@@ -10459,7 +10451,7 @@
       <c r="K12" s="4"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="15">
+    <row r="13" spans="1:17">
       <c r="A13" s="11" t="s">
         <v>236</v>
       </c>
@@ -10491,7 +10483,7 @@
       <c r="K13" s="4"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="15">
+    <row r="14" spans="1:17">
       <c r="A14" s="11" t="s">
         <v>239</v>
       </c>
@@ -10523,7 +10515,7 @@
       <c r="K14" s="4"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="15">
+    <row r="15" spans="1:17">
       <c r="A15" s="11" t="s">
         <v>239</v>
       </c>
@@ -10557,7 +10549,7 @@
       <c r="K15" s="4"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="15">
+    <row r="16" spans="1:17">
       <c r="A16" s="11" t="s">
         <v>239</v>
       </c>
@@ -10589,7 +10581,7 @@
       <c r="K16" s="4"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="15">
+    <row r="17" spans="1:13">
       <c r="A17" s="11" t="s">
         <v>244</v>
       </c>
@@ -10621,7 +10613,7 @@
       <c r="K17" s="4"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="15">
+    <row r="18" spans="1:13">
       <c r="A18" s="14" t="s">
         <v>246</v>
       </c>
@@ -10650,7 +10642,7 @@
       <c r="K18" s="4"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="15">
+    <row r="19" spans="1:13">
       <c r="A19" s="14"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -10693,7 +10685,7 @@
       <c r="K21" s="4"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5">
+    <row r="22" spans="1:13" ht="16.2">
       <c r="A22" s="1" t="s">
         <v>249</v>
       </c>
@@ -10724,7 +10716,7 @@
       <c r="K23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="15">
+    <row r="24" spans="1:13">
       <c r="A24" s="11" t="s">
         <v>236</v>
       </c>
@@ -10751,7 +10743,7 @@
       <c r="K24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="15">
+    <row r="25" spans="1:13">
       <c r="A25" s="11" t="s">
         <v>236</v>
       </c>
@@ -10835,7 +10827,7 @@
       <c r="K27" s="4"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="15">
+    <row r="28" spans="1:13">
       <c r="A28" s="11" t="s">
         <v>254</v>
       </c>
@@ -10862,7 +10854,7 @@
       <c r="K28" s="4"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="15">
+    <row r="29" spans="1:13">
       <c r="A29" s="11" t="s">
         <v>255</v>
       </c>
@@ -10888,7 +10880,7 @@
       <c r="K29" s="4"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="15">
+    <row r="30" spans="1:13">
       <c r="A30" s="11" t="s">
         <v>244</v>
       </c>
@@ -10918,7 +10910,7 @@
       <c r="K30" s="4"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="15">
+    <row r="31" spans="1:13">
       <c r="A31" s="11"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -10930,7 +10922,7 @@
       <c r="K31" s="4"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="15">
+    <row r="32" spans="1:13">
       <c r="A32" s="11" t="s">
         <v>257</v>
       </c>
@@ -10954,7 +10946,7 @@
       <c r="K32" s="4"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="15">
+    <row r="33" spans="1:13">
       <c r="A33" s="11" t="s">
         <v>118</v>
       </c>
@@ -10978,7 +10970,7 @@
       <c r="K33" s="4"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="15">
+    <row r="34" spans="1:13">
       <c r="A34" s="14"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -10990,7 +10982,7 @@
       <c r="K34" s="4"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="15">
+    <row r="35" spans="1:13">
       <c r="A35" s="11"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -11001,7 +10993,7 @@
       <c r="K35" s="4"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="15">
+    <row r="36" spans="1:13">
       <c r="A36" s="11"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -11012,7 +11004,7 @@
       <c r="K36" s="4"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="15">
+    <row r="37" spans="1:13">
       <c r="A37" s="11"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -11023,7 +11015,7 @@
       <c r="K37" s="4"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="15">
+    <row r="38" spans="1:13">
       <c r="A38" s="14"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -11034,7 +11026,7 @@
       <c r="K38" s="4"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="15">
+    <row r="39" spans="1:13">
       <c r="A39" s="14"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -11045,7 +11037,7 @@
       <c r="K39" s="4"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="15">
+    <row r="40" spans="1:13">
       <c r="A40" s="11"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -11056,7 +11048,7 @@
       <c r="K40" s="4"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="15">
+    <row r="41" spans="1:13">
       <c r="A41" s="11"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -11089,7 +11081,7 @@
       <c r="J44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="15">
+    <row r="45" spans="1:13">
       <c r="A45" s="11"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -11098,7 +11090,7 @@
       <c r="J45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="15">
+    <row r="46" spans="1:13">
       <c r="A46" s="14"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -11106,7 +11098,7 @@
       <c r="J46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="15">
+    <row r="47" spans="1:13">
       <c r="A47" s="14"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -11115,7 +11107,7 @@
       <c r="J47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="15">
+    <row r="48" spans="1:13">
       <c r="A48" s="14"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -11125,7 +11117,7 @@
       <c r="J48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="15">
+    <row r="49" spans="1:13">
       <c r="A49" s="14"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -11134,7 +11126,7 @@
       <c r="J49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="15">
+    <row r="50" spans="1:13">
       <c r="A50" s="14"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -11142,7 +11134,7 @@
       <c r="J50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="15">
+    <row r="51" spans="1:13">
       <c r="A51" s="11"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -11152,7 +11144,7 @@
       <c r="J51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="15">
+    <row r="52" spans="1:13">
       <c r="A52" s="11"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -11162,7 +11154,7 @@
       <c r="J52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="15">
+    <row r="53" spans="1:13">
       <c r="A53" s="11"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -11172,7 +11164,7 @@
       <c r="J53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="15">
+    <row r="54" spans="1:13">
       <c r="A54" s="14"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -11181,7 +11173,7 @@
       <c r="J54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="15">
+    <row r="55" spans="1:13">
       <c r="A55" s="14"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -11211,7 +11203,7 @@
       <c r="J57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="15">
+    <row r="58" spans="1:13">
       <c r="A58" s="11" t="s">
         <v>261</v>
       </c>
@@ -11235,7 +11227,7 @@
       </c>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="15">
+    <row r="59" spans="1:13">
       <c r="A59" s="11" t="s">
         <v>262</v>
       </c>
@@ -11259,7 +11251,7 @@
       </c>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="15">
+    <row r="60" spans="1:13">
       <c r="A60" s="11" t="s">
         <v>263</v>
       </c>
@@ -11283,7 +11275,7 @@
       </c>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="15">
+    <row r="61" spans="1:13">
       <c r="A61" s="11" t="s">
         <v>264</v>
       </c>
@@ -11307,7 +11299,7 @@
       </c>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="15">
+    <row r="62" spans="1:13">
       <c r="A62" s="11" t="s">
         <v>265</v>
       </c>
@@ -11331,7 +11323,7 @@
       </c>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="15">
+    <row r="63" spans="1:13">
       <c r="A63" s="11" t="s">
         <v>265</v>
       </c>
@@ -11356,7 +11348,7 @@
       </c>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="15">
+    <row r="64" spans="1:13">
       <c r="A64" s="11" t="s">
         <v>265</v>
       </c>
@@ -11381,7 +11373,7 @@
       </c>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" ht="15">
+    <row r="65" spans="1:13">
       <c r="A65" s="11" t="s">
         <v>265</v>
       </c>
@@ -11405,7 +11397,7 @@
       </c>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="15">
+    <row r="66" spans="1:13">
       <c r="A66" s="11" t="s">
         <v>265</v>
       </c>
@@ -11429,7 +11421,7 @@
       </c>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="15">
+    <row r="67" spans="1:13">
       <c r="A67" s="11" t="s">
         <v>265</v>
       </c>
@@ -11474,7 +11466,7 @@
       <c r="J70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="15">
+    <row r="71" spans="1:13">
       <c r="A71" s="11"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
@@ -11484,7 +11476,7 @@
       <c r="J71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="15">
+    <row r="72" spans="1:13">
       <c r="A72" s="11" t="s">
         <v>271</v>
       </c>
@@ -11510,7 +11502,7 @@
       <c r="J72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" ht="15">
+    <row r="73" spans="1:13">
       <c r="A73" s="11" t="s">
         <v>272</v>
       </c>
@@ -11536,7 +11528,7 @@
       <c r="J73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="15">
+    <row r="74" spans="1:13">
       <c r="A74" s="11" t="s">
         <v>273</v>
       </c>
@@ -11562,7 +11554,7 @@
       <c r="J74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="15">
+    <row r="75" spans="1:13">
       <c r="A75" s="11" t="s">
         <v>264</v>
       </c>
@@ -11588,7 +11580,7 @@
       <c r="J75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="15">
+    <row r="76" spans="1:13">
       <c r="A76" s="11" t="s">
         <v>265</v>
       </c>
@@ -11645,7 +11637,7 @@
     </row>
     <row r="81" spans="3:8">
       <c r="C81" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D81" s="41">
         <v>89048</v>
@@ -11659,16 +11651,16 @@
     </row>
     <row r="83" spans="3:8">
       <c r="C83" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D83" s="41">
         <v>59802</v>
       </c>
       <c r="F83" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -11690,25 +11682,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="56.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="56.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.69921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.69921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.19921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.59765625" style="2" customWidth="1"/>
     <col min="9" max="13" width="16.5" style="2" customWidth="1"/>
     <col min="14" max="15" width="16.5" style="3" customWidth="1"/>
     <col min="16" max="17" width="16.5" style="4" customWidth="1"/>
     <col min="18" max="19" width="16.5" style="2" customWidth="1"/>
-    <col min="20" max="1025" width="10.625" style="2" customWidth="1"/>
+    <col min="20" max="1025" width="10.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -11717,17 +11709,17 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
@@ -11735,12 +11727,12 @@
       <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="7"/>
@@ -11761,7 +11753,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:17">
       <c r="A3" s="11"/>
       <c r="D3" s="19" t="s">
         <v>186</v>
@@ -11812,7 +11804,7 @@
       <c r="K6" s="4"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="16.5">
+    <row r="7" spans="1:17" ht="16.2">
       <c r="A7" s="1" t="s">
         <v>249</v>
       </c>
@@ -11843,14 +11835,14 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="11" t="s">
         <v>236</v>
       </c>
@@ -11879,7 +11871,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17">
       <c r="A10" s="11" t="s">
         <v>236</v>
       </c>
@@ -11948,7 +11940,7 @@
         <v>281</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -11979,10 +11971,10 @@
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="11" t="s">
         <v>254</v>
       </c>
@@ -12013,7 +12005,7 @@
       </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="15">
+    <row r="14" spans="1:17">
       <c r="A14" s="11" t="s">
         <v>255</v>
       </c>
@@ -12044,7 +12036,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="15">
+    <row r="15" spans="1:17">
       <c r="A15" s="11" t="s">
         <v>244</v>
       </c>
@@ -12078,7 +12070,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="15">
+    <row r="16" spans="1:17">
       <c r="A16" s="11"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -12095,7 +12087,7 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="15">
+    <row r="17" spans="1:13">
       <c r="A17" s="11"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -12109,7 +12101,7 @@
       <c r="K17" s="4"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="15">
+    <row r="18" spans="1:13">
       <c r="A18" s="11" t="s">
         <v>294</v>
       </c>
@@ -12126,7 +12118,7 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="15">
+    <row r="19" spans="1:13">
       <c r="A19" s="11"/>
       <c r="B19" s="1"/>
       <c r="D19" s="13"/>
@@ -12155,7 +12147,7 @@
       <c r="J22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="15">
+    <row r="23" spans="1:13">
       <c r="A23" s="11"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -12165,7 +12157,7 @@
       <c r="J23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="15">
+    <row r="24" spans="1:13">
       <c r="A24" s="11" t="s">
         <v>271</v>
       </c>
@@ -12191,7 +12183,7 @@
       <c r="J24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="15">
+    <row r="25" spans="1:13">
       <c r="A25" s="11" t="s">
         <v>272</v>
       </c>
@@ -12217,7 +12209,7 @@
       <c r="J25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="15">
+    <row r="26" spans="1:13">
       <c r="A26" s="11" t="s">
         <v>273</v>
       </c>
@@ -12243,7 +12235,7 @@
       <c r="J26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="15">
+    <row r="27" spans="1:13">
       <c r="A27" s="11" t="s">
         <v>264</v>
       </c>
@@ -12269,7 +12261,7 @@
       <c r="J27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="15">
+    <row r="28" spans="1:13">
       <c r="A28" s="11" t="s">
         <v>265</v>
       </c>
@@ -12326,10 +12318,10 @@
         <v>2020</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="M32" s="3"/>
     </row>
@@ -12339,7 +12331,7 @@
       <c r="H33" s="41">
         <v>85733</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="43">
         <v>85394</v>
       </c>
       <c r="J33" s="3"/>
@@ -12348,11 +12340,11 @@
     <row r="34" spans="3:13">
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
-      <c r="I34" s="48">
+      <c r="I34" s="43">
         <v>85255</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M34" s="3"/>
     </row>
@@ -12366,11 +12358,11 @@
     <row r="36" spans="3:13">
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="I36" s="48">
+      <c r="I36" s="43">
         <v>85274</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M36" s="3"/>
     </row>
@@ -12717,15 +12709,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK184"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="86.875" style="20" customWidth="1"/>
-    <col min="3" max="15" width="12.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.09765625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="86.8984375" style="20" customWidth="1"/>
+    <col min="3" max="15" width="12.59765625" style="20" customWidth="1"/>
     <col min="16" max="1025" width="8.5" style="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12844,7 +12836,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15">
+    <row r="18" spans="1:12">
       <c r="A18" s="14" t="s">
         <v>323</v>
       </c>
@@ -12865,7 +12857,7 @@
         <v>327</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>338</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12873,7 +12865,7 @@
         <v>329</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12881,7 +12873,7 @@
         <v>331</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12889,7 +12881,7 @@
         <v>333</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12968,12 +12960,12 @@
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
     </row>
-    <row r="29" spans="1:12" ht="15">
+    <row r="29" spans="1:12">
       <c r="A29" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -12981,7 +12973,7 @@
         <v>325</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12989,7 +12981,7 @@
         <v>327</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -12997,7 +12989,7 @@
         <v>329</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -13005,7 +12997,7 @@
         <v>331</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -13013,7 +13005,7 @@
         <v>333</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -13108,16 +13100,16 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D40" s="28"/>
     </row>
-    <row r="42" spans="1:14" ht="15">
+    <row r="42" spans="1:14">
       <c r="A42" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -13125,7 +13117,7 @@
         <v>325</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -13133,7 +13125,7 @@
         <v>327</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -13141,7 +13133,7 @@
         <v>329</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -13149,7 +13141,7 @@
         <v>331</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -13157,7 +13149,7 @@
         <v>333</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -13196,7 +13188,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -13204,7 +13196,7 @@
         <v>323</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -13212,7 +13204,7 @@
         <v>325</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -13220,7 +13212,7 @@
         <v>327</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -13228,7 +13220,7 @@
         <v>329</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -13236,7 +13228,7 @@
         <v>331</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -13244,7 +13236,7 @@
         <v>333</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -13252,7 +13244,7 @@
         <v>323</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -13260,7 +13252,7 @@
         <v>325</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -13268,7 +13260,7 @@
         <v>327</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -13276,7 +13268,7 @@
         <v>329</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -13284,7 +13276,7 @@
         <v>331</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -13292,7 +13284,7 @@
         <v>333</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -13300,7 +13292,7 @@
         <v>323</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -13308,7 +13300,7 @@
         <v>325</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -13316,7 +13308,7 @@
         <v>327</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -13324,7 +13316,7 @@
         <v>329</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -13332,7 +13324,7 @@
         <v>331</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -13340,15 +13332,15 @@
         <v>333</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -13356,7 +13348,7 @@
         <v>325</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -13364,7 +13356,7 @@
         <v>327</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -13372,7 +13364,7 @@
         <v>329</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -13380,7 +13372,7 @@
         <v>331</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -13388,7 +13380,7 @@
         <v>333</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -13496,7 +13488,7 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G88" s="33"/>
     </row>
@@ -13509,7 +13501,7 @@
         <v>323</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -13517,7 +13509,7 @@
         <v>325</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -13525,7 +13517,7 @@
         <v>327</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -13533,7 +13525,7 @@
         <v>329</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -13541,7 +13533,7 @@
         <v>331</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -13549,20 +13541,20 @@
         <v>333</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -13570,7 +13562,7 @@
         <v>325</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -13578,7 +13570,7 @@
         <v>327</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -13586,7 +13578,7 @@
         <v>329</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -13594,7 +13586,7 @@
         <v>331</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -13602,7 +13594,7 @@
         <v>333</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -13697,7 +13689,7 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -13705,7 +13697,7 @@
         <v>323</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -13713,7 +13705,7 @@
         <v>325</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -13721,7 +13713,7 @@
         <v>327</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -13729,7 +13721,7 @@
         <v>329</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -13737,7 +13729,7 @@
         <v>331</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -13745,12 +13737,12 @@
         <v>333</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -13758,7 +13750,7 @@
         <v>323</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -13766,7 +13758,7 @@
         <v>325</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -13774,7 +13766,7 @@
         <v>327</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -13782,7 +13774,7 @@
         <v>329</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -13790,7 +13782,7 @@
         <v>331</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -13798,12 +13790,12 @@
         <v>333</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -13811,7 +13803,7 @@
         <v>323</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -13819,7 +13811,7 @@
         <v>325</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -13827,7 +13819,7 @@
         <v>327</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -13835,7 +13827,7 @@
         <v>329</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -13843,7 +13835,7 @@
         <v>331</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -13851,25 +13843,25 @@
         <v>333</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="16.2">
+      <c r="A138" s="20" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16.5">
-      <c r="A138" s="20" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="15">
+    <row r="140" spans="1:2">
       <c r="A140" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -13877,7 +13869,7 @@
         <v>325</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -13885,7 +13877,7 @@
         <v>327</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -13893,7 +13885,7 @@
         <v>329</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -13901,7 +13893,7 @@
         <v>331</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -13909,7 +13901,7 @@
         <v>333</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -13972,15 +13964,15 @@
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="20" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" ht="15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
       <c r="A153" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="154" spans="1:17">
@@ -13988,7 +13980,7 @@
         <v>325</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="155" spans="1:17">
@@ -13996,7 +13988,7 @@
         <v>327</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="156" spans="1:17">
@@ -14004,7 +13996,7 @@
         <v>329</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="157" spans="1:17">
@@ -14012,7 +14004,7 @@
         <v>331</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="158" spans="1:17">
@@ -14020,7 +14012,7 @@
         <v>333</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="160" spans="1:17">
@@ -14119,15 +14111,15 @@
     </row>
     <row r="164" spans="1:17">
       <c r="A164" s="20" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" ht="15">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="167" spans="1:17">
@@ -14135,7 +14127,7 @@
         <v>325</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="168" spans="1:17">
@@ -14143,7 +14135,7 @@
         <v>327</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="169" spans="1:17">
@@ -14151,7 +14143,7 @@
         <v>329</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="170" spans="1:17">
@@ -14159,7 +14151,7 @@
         <v>331</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="171" spans="1:17">
@@ -14167,7 +14159,7 @@
         <v>333</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="173" spans="1:17">
@@ -14218,15 +14210,15 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="20" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -14234,7 +14226,7 @@
         <v>325</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -14242,7 +14234,7 @@
         <v>327</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -14250,7 +14242,7 @@
         <v>329</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -14258,7 +14250,7 @@
         <v>331</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -14266,7 +14258,7 @@
         <v>333</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -14285,10 +14277,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="25.09765625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="20" customWidth="1"/>
     <col min="3" max="1025" width="8.5" style="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14297,15 +14289,15 @@
         <v>323</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>442</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -14313,7 +14305,7 @@
         <v>325</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -14321,7 +14313,7 @@
         <v>327</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -14329,7 +14321,7 @@
         <v>329</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -14337,7 +14329,7 @@
         <v>331</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -14345,7 +14337,7 @@
         <v>333</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
